--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:GR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>

--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:GR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB7" sqref="AB7"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2850,7 +2850,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
         <v>0</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T8" s="1">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="1">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W10" s="1">
         <v>1</v>
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>

--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:GR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2850,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>3</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
       </c>
       <c r="O5" s="1">
         <v>0</v>
@@ -3452,16 +3452,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>3</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>

--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -90,7 +90,49 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -390,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+      <selection activeCell="DE4" sqref="DE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -733,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="DD1" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE1" s="1">
         <v>0</v>
@@ -1335,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="DD2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE2" s="1">
         <v>0</v>
@@ -1937,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="DD3" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE3" s="1">
         <v>0</v>
@@ -2539,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="DD4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE4" s="1">
         <v>0</v>
@@ -3141,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="DD5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE5" s="1">
         <v>0</v>
@@ -3743,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="DD6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE6" s="1">
         <v>0</v>
@@ -4345,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="DD7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE7" s="1">
         <v>0</v>
@@ -4947,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="DD8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE8" s="1">
         <v>0</v>
@@ -5549,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="DD9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE9" s="1">
         <v>0</v>
@@ -6151,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="DD10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DE10" s="1">
         <v>0</v>
@@ -6433,13 +6475,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -90,11 +90,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -108,7 +108,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -432,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="DE4" sqref="DE4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2377,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO4" s="1">
         <v>0</v>
@@ -2422,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="BC4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD4" s="1">
         <v>0</v>
@@ -2943,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="1">
         <v>0</v>
@@ -3024,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD5" s="1">
         <v>0</v>
@@ -3626,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD6" s="1">
         <v>0</v>
@@ -4162,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH7" s="1">
         <v>0</v>
@@ -4201,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AU7" s="1">
         <v>0</v>
@@ -4228,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
@@ -4779,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM8" s="1">
         <v>0</v>
@@ -4830,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD8" s="1">
         <v>0</v>
@@ -5432,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="BC9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD9" s="1">
         <v>0</v>
@@ -6034,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD10" s="1">
         <v>0</v>
@@ -6475,14 +6482,18 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>4</formula>
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -90,53 +90,11 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -439,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BJ14" sqref="BJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2444,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI4" s="1">
         <v>0</v>
@@ -3025,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB5" s="1">
         <v>0</v>
@@ -3046,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI5" s="1">
         <v>0</v>
@@ -3594,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="1">
         <v>0</v>
@@ -3609,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV6" s="1">
         <v>0</v>
@@ -3627,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB6" s="1">
         <v>0</v>
@@ -3648,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI6" s="1">
         <v>0</v>
@@ -4196,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ7" s="1">
         <v>0</v>
@@ -4211,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="AU7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV7" s="1">
         <v>0</v>
@@ -4229,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="BA7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB7" s="1">
         <v>0</v>
@@ -4250,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="BH7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI7" s="1">
         <v>0</v>
@@ -4765,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
         <v>0</v>
@@ -4798,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ8" s="1">
         <v>0</v>
@@ -4813,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV8" s="1">
         <v>0</v>
@@ -4831,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="BA8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB8" s="1">
         <v>0</v>
@@ -4852,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="BH8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI8" s="1">
         <v>0</v>
@@ -5367,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
         <v>0</v>
@@ -5400,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
@@ -5415,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV9" s="1">
         <v>0</v>
@@ -5433,7 +5391,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB9" s="1">
         <v>0</v>
@@ -5454,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI9" s="1">
         <v>0</v>
@@ -6017,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV10" s="1">
         <v>0</v>
@@ -6035,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB10" s="1">
         <v>0</v>
@@ -6056,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="BH10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI10" s="1">
         <v>0</v>
@@ -6482,16 +6440,16 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>

--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -90,7 +90,21 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -397,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="BJ14" sqref="BJ14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1680,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U3" s="1">
         <v>0</v>
@@ -3552,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ6" s="1">
         <v>0</v>
@@ -4154,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ7" s="1">
         <v>0</v>
@@ -4720,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
@@ -4756,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ8" s="1">
         <v>0</v>
@@ -5319,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD9" s="1">
         <v>0</v>
@@ -5358,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ9" s="1">
         <v>0</v>
@@ -5927,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="1">
         <v>0</v>
@@ -6440,18 +6454,28 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>4</formula>
       <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>5</formula>
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>6</formula>
+      <formula>6</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -90,7 +90,133 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -412,7 +538,7 @@
   <dimension ref="A1:GR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2913,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -2922,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
         <v>0</v>
@@ -4123,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -4710,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -4734,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>0</v>
@@ -5312,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
@@ -5333,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
         <v>0</v>
@@ -5914,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
         <v>0</v>
@@ -5926,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>
@@ -6454,26 +6580,26 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
       <formula>5</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
       <formula>6</formula>
       <formula>6</formula>
     </cfRule>

--- a/Torch runner 2/Torch runner 2/stage1.xlsx
+++ b/Torch runner 2/Torch runner 2/stage1.xlsx
@@ -90,18 +90,25 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -115,21 +122,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -186,76 +179,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -538,7 +461,7 @@
   <dimension ref="A1:GR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="DF10" sqref="DF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -880,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="DD1" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE1" s="1">
         <v>0</v>
@@ -1482,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="DD2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE2" s="1">
         <v>0</v>
@@ -1820,271 +1743,271 @@
         <v>0</v>
       </c>
       <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="1">
         <v>6</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DD3" s="1">
-        <v>3</v>
       </c>
       <c r="DE3" s="1">
         <v>0</v>
@@ -2476,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AM4" s="1">
         <v>0</v>
@@ -2512,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY4" s="1">
         <v>0</v>
@@ -2686,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="DD4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE4" s="1">
         <v>0</v>
@@ -3114,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY5" s="1">
         <v>0</v>
@@ -3288,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="DD5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE5" s="1">
         <v>0</v>
@@ -3716,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY6" s="1">
         <v>1</v>
@@ -3890,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="DD6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE6" s="1">
         <v>0</v>
@@ -4258,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE7" s="1">
         <v>3</v>
@@ -4291,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AP7" s="1">
         <v>5</v>
@@ -4318,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY7" s="1">
         <v>0</v>
@@ -4492,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="DD7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE7" s="1">
         <v>0</v>
@@ -4881,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL8" s="1">
         <v>4</v>
@@ -4920,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY8" s="1">
         <v>0</v>
@@ -5094,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="DD8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE8" s="1">
         <v>0</v>
@@ -5522,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY9" s="1">
         <v>1</v>
@@ -5696,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="DD9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE9" s="1">
         <v>0</v>
@@ -6124,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY10" s="1">
         <v>0</v>
@@ -6298,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="DD10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DE10" s="1">
         <v>0</v>
@@ -6580,26 +6503,30 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:GR10">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>4</formula>
       <formula>4</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="between">
+      <formula>7</formula>
+      <formula>7</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
       <formula>5</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="between">
       <formula>6</formula>
       <formula>6</formula>
     </cfRule>
